--- a/MXIC_PCCS/Content/MXIC/計價單.xlsx
+++ b/MXIC_PCCS/Content/MXIC/計價單.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeremypeng\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我是賠錢貨\MXIC6969\MXIC_PCCS\Content\MXIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="72">
   <si>
     <t>Open PO驗收明細表</t>
   </si>
@@ -34,10 +34,6 @@
   </si>
   <si>
     <t>PO NO.：</t>
-  </si>
-  <si>
-    <t>申請
-月份</t>
   </si>
   <si>
     <t>Item</t>
@@ -525,12 +521,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="yyyy/m"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -612,7 +607,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -731,19 +726,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -784,7 +766,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -808,9 +790,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -838,7 +817,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -866,14 +845,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -881,15 +860,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1215,181 +1185,177 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA79"/>
+  <dimension ref="A1:AZ79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="6.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="70.5" style="9" customWidth="1"/>
-    <col min="6" max="6" width="5.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="9" customWidth="1"/>
-    <col min="9" max="9" width="12.5" style="9" customWidth="1"/>
-    <col min="10" max="10" width="4.75" style="4" customWidth="1"/>
-    <col min="11" max="11" width="10.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="53" width="9" style="4" customWidth="1"/>
-    <col min="54" max="55" width="9" style="2" customWidth="1"/>
-    <col min="56" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="5.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.5" style="9" customWidth="1"/>
+    <col min="5" max="5" width="5.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="9" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="9" customWidth="1"/>
+    <col min="9" max="9" width="4.75" style="4" customWidth="1"/>
+    <col min="10" max="10" width="10.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="52" width="9" style="4" customWidth="1"/>
+    <col min="53" max="54" width="9" style="2" customWidth="1"/>
+    <col min="55" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:52">
+      <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:53">
+    </row>
+    <row r="2" spans="1:52">
+      <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:53">
+    </row>
+    <row r="3" spans="1:52">
+      <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:53" ht="32.25">
-      <c r="B4" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-    </row>
-    <row r="5" spans="1:53">
+    </row>
+    <row r="4" spans="1:52" ht="32.25">
+      <c r="A4" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+    </row>
+    <row r="5" spans="1:52">
+      <c r="A5" s="5"/>
       <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8" t="s">
+      <c r="F5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="1:53">
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:52">
+      <c r="A6" s="5"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8" t="s">
+      <c r="F6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="H6" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:52">
+      <c r="A7" s="5"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8" t="s">
+      <c r="F7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" spans="1:53" s="16" customFormat="1" ht="33">
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:52" s="15" customFormat="1" ht="28.5">
       <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="12" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="14"/>
+      <c r="AF8" s="14"/>
+      <c r="AG8" s="14"/>
+      <c r="AH8" s="14"/>
+      <c r="AI8" s="14"/>
+      <c r="AJ8" s="14"/>
+      <c r="AK8" s="14"/>
+      <c r="AL8" s="14"/>
+      <c r="AM8" s="14"/>
+      <c r="AN8" s="14"/>
+      <c r="AO8" s="14"/>
+      <c r="AP8" s="14"/>
+      <c r="AQ8" s="14"/>
+      <c r="AR8" s="14"/>
+      <c r="AS8" s="14"/>
+      <c r="AT8" s="14"/>
+      <c r="AU8" s="14"/>
+      <c r="AV8" s="14"/>
+      <c r="AW8" s="14"/>
+      <c r="AX8" s="14"/>
+      <c r="AY8" s="14"/>
+      <c r="AZ8" s="14"/>
+    </row>
+    <row r="9" spans="1:52" ht="30" customHeight="1">
+      <c r="A9" s="44">
+        <v>10</v>
+      </c>
+      <c r="B9" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="15"/>
-      <c r="AA8" s="15"/>
-      <c r="AB8" s="15"/>
-      <c r="AC8" s="15"/>
-      <c r="AD8" s="15"/>
-      <c r="AE8" s="15"/>
-      <c r="AF8" s="15"/>
-      <c r="AG8" s="15"/>
-      <c r="AH8" s="15"/>
-      <c r="AI8" s="15"/>
-      <c r="AJ8" s="15"/>
-      <c r="AK8" s="15"/>
-      <c r="AL8" s="15"/>
-      <c r="AM8" s="15"/>
-      <c r="AN8" s="15"/>
-      <c r="AO8" s="15"/>
-      <c r="AP8" s="15"/>
-      <c r="AQ8" s="15"/>
-      <c r="AR8" s="15"/>
-      <c r="AS8" s="15"/>
-      <c r="AT8" s="15"/>
-      <c r="AU8" s="15"/>
-      <c r="AV8" s="15"/>
-      <c r="AW8" s="15"/>
-      <c r="AX8" s="15"/>
-      <c r="AY8" s="15"/>
-      <c r="AZ8" s="15"/>
-      <c r="BA8" s="15"/>
-    </row>
-    <row r="9" spans="1:53" ht="30" customHeight="1">
-      <c r="A9" s="45">
-        <v>43282</v>
-      </c>
-      <c r="B9" s="48">
-        <v>10</v>
-      </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="16" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="17" t="s">
@@ -1398,1033 +1364,968 @@
       <c r="E9" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="19">
+        <v>84000</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="20">
+        <f>F9*G9</f>
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="2"/>
+    </row>
+    <row r="10" spans="1:52">
+      <c r="A10" s="45"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="20">
-        <v>84000</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="21">
-        <f>G9*H9</f>
-        <v>0</v>
-      </c>
-      <c r="BA9" s="2"/>
-    </row>
-    <row r="10" spans="1:53">
-      <c r="A10" s="46"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="51"/>
       <c r="D10" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="18">
+        <v>687</v>
+      </c>
+      <c r="G10" s="23"/>
+      <c r="H10" s="20">
+        <f>F10*G10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:52">
+      <c r="A11" s="45"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="19">
+      <c r="D11" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="18">
+        <v>712</v>
+      </c>
+      <c r="G11" s="23"/>
+      <c r="H11" s="20">
+        <f>F11*G11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:52" ht="21.95" customHeight="1">
+      <c r="A12" s="44"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="18">
         <v>687</v>
       </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="21">
-        <f>G10*H10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:53">
-      <c r="A11" s="47"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="19">
-        <v>712</v>
-      </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="21">
-        <f>G11*H11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:53" ht="21.95" customHeight="1">
-      <c r="A12" s="45"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="18" t="s">
+      <c r="G12" s="1"/>
+      <c r="H12" s="20">
+        <f t="shared" ref="H12:H33" si="0">F12*G12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:52" ht="21.95" customHeight="1">
+      <c r="A13" s="44"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="19">
+      <c r="D13" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="18">
+        <v>663</v>
+      </c>
+      <c r="G13" s="23"/>
+      <c r="H13" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:52" ht="21.95" customHeight="1">
+      <c r="A14" s="44"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="23">
         <v>687</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="21">
-        <f t="shared" ref="I12:I33" si="0">G12*H12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:53" ht="21.95" customHeight="1">
-      <c r="A13" s="45"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="19">
-        <v>663</v>
-      </c>
-      <c r="H13" s="24"/>
-      <c r="I13" s="21">
+      <c r="G14" s="24"/>
+      <c r="H14" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:53" ht="21.95" customHeight="1">
-      <c r="A14" s="45"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="18" t="s">
+    <row r="15" spans="1:52">
+      <c r="A15" s="45"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="24">
-        <v>687</v>
-      </c>
-      <c r="H14" s="25"/>
-      <c r="I14" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:53">
-      <c r="A15" s="46"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="51"/>
       <c r="D15" s="17" t="s">
         <v>28</v>
       </c>
       <c r="E15" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="18">
+        <v>663</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="20">
+        <f>F15*G15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:52" ht="30" customHeight="1">
+      <c r="A16" s="45"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="19">
-        <v>663</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="21">
-        <f>G15*H15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:53" ht="30" customHeight="1">
-      <c r="A16" s="45"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E16" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="25">
+        <v>84000</v>
+      </c>
+      <c r="G16" s="24"/>
+      <c r="H16" s="20">
+        <f>F16*G16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="30" customHeight="1">
+      <c r="A17" s="45"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="26">
-        <v>84000</v>
-      </c>
-      <c r="H16" s="25"/>
-      <c r="I16" s="21">
-        <f>G16*H16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="30" customHeight="1">
-      <c r="A17" s="45"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="51"/>
       <c r="D17" s="17" t="s">
         <v>32</v>
       </c>
       <c r="E17" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="19">
+        <v>87000</v>
+      </c>
+      <c r="G17" s="23"/>
+      <c r="H17" s="20">
+        <f>F17*G17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="30" customHeight="1">
+      <c r="A18" s="45"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="20">
-        <v>87000</v>
-      </c>
-      <c r="H17" s="24"/>
-      <c r="I17" s="21">
-        <f>G17*H17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="30" customHeight="1">
-      <c r="A18" s="45"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="17" t="s">
         <v>34</v>
       </c>
       <c r="E18" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="19">
+        <v>84000</v>
+      </c>
+      <c r="G18" s="23"/>
+      <c r="H18" s="20">
+        <f>F18*G18</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="26"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="45"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="20">
-        <v>84000</v>
-      </c>
-      <c r="H18" s="24"/>
-      <c r="I18" s="21">
-        <f>G18*H18</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="27"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="45"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="51"/>
       <c r="D19" s="17" t="s">
         <v>36</v>
       </c>
       <c r="E19" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="18">
+        <v>82000</v>
+      </c>
+      <c r="G19" s="23"/>
+      <c r="H19" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="45"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="19">
-        <v>82000</v>
-      </c>
-      <c r="H19" s="24"/>
-      <c r="I19" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="45"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="51"/>
       <c r="D20" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="18">
+        <v>85000</v>
+      </c>
+      <c r="G20" s="23"/>
+      <c r="H20" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="45"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="19">
-        <v>85000</v>
-      </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="21">
+      <c r="D21" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="18">
+        <v>82000</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="45"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="23" t="s">
+    <row r="22" spans="1:10">
+      <c r="A22" s="45"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="19">
-        <v>82000</v>
-      </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="21">
+      <c r="D22" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="18">
+        <v>687</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="45"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="28" t="s">
+    <row r="23" spans="1:10">
+      <c r="A23" s="45"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" s="19">
+      <c r="D23" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="18">
+        <v>715</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="45"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="18">
+        <v>663</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="45"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="18">
         <v>687</v>
       </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="21">
+      <c r="G25" s="1"/>
+      <c r="H25" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="45"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" s="19">
-        <v>715</v>
-      </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="21">
+    <row r="26" spans="1:10" ht="30" customHeight="1">
+      <c r="A26" s="45"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="18">
+        <v>343</v>
+      </c>
+      <c r="G26" s="23"/>
+      <c r="H26" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="45"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="19">
-        <v>663</v>
-      </c>
-      <c r="H24" s="1"/>
-      <c r="I24" s="21">
+    <row r="27" spans="1:10" ht="30" customHeight="1">
+      <c r="A27" s="45"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="18">
+        <v>172</v>
+      </c>
+      <c r="G27" s="23"/>
+      <c r="H27" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="45"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" s="19">
-        <v>687</v>
-      </c>
-      <c r="H25" s="1"/>
-      <c r="I25" s="21">
+    <row r="28" spans="1:10">
+      <c r="A28" s="45"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="23">
+        <v>356</v>
+      </c>
+      <c r="G28" s="24"/>
+      <c r="H28" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="30" customHeight="1">
-      <c r="A26" s="45"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="F26" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" s="19">
+    <row r="29" spans="1:10">
+      <c r="A29" s="45"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="23">
+        <v>178</v>
+      </c>
+      <c r="G29" s="24"/>
+      <c r="H29" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="45"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="23">
+        <v>332</v>
+      </c>
+      <c r="G30" s="24"/>
+      <c r="H30" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="45"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="23">
+        <v>166</v>
+      </c>
+      <c r="G31" s="24"/>
+      <c r="H31" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="45"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="23">
         <v>343</v>
       </c>
-      <c r="H26" s="24"/>
-      <c r="I26" s="21">
+      <c r="G32" s="24"/>
+      <c r="H32" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="30" customHeight="1">
-      <c r="A27" s="45"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E27" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" s="19">
+    <row r="33" spans="1:11">
+      <c r="A33" s="45"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="23">
         <v>172</v>
       </c>
-      <c r="H27" s="24"/>
-      <c r="I27" s="21">
+      <c r="G33" s="24"/>
+      <c r="H33" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="45"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" s="24">
-        <v>356</v>
-      </c>
-      <c r="H28" s="25"/>
-      <c r="I28" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="45"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E29" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" s="24">
-        <v>178</v>
-      </c>
-      <c r="H29" s="25"/>
-      <c r="I29" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="45"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G30" s="24">
-        <v>332</v>
-      </c>
-      <c r="H30" s="25"/>
-      <c r="I30" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="45"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E31" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="F31" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" s="24">
-        <v>166</v>
-      </c>
-      <c r="H31" s="25"/>
-      <c r="I31" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="45"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="E32" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G32" s="24">
-        <v>343</v>
-      </c>
-      <c r="H32" s="25"/>
-      <c r="I32" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="45"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E33" s="28" t="s">
+    <row r="34" spans="1:11" ht="30" customHeight="1">
+      <c r="A34" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="F33" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33" s="24">
-        <v>172</v>
-      </c>
-      <c r="H33" s="25"/>
-      <c r="I33" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="30" customHeight="1">
-      <c r="A34" s="45"/>
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="41">
+        <f>SUM(H9:H33)</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="26"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="H35" s="29"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="F37" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="42">
-        <f>SUM(I9:I33)</f>
-        <v>0</v>
-      </c>
-      <c r="L34" s="27"/>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="I35" s="30"/>
-    </row>
-    <row r="37" spans="1:12">
       <c r="G37" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="1:12">
+        <v>71</v>
+      </c>
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="B39" s="31" t="s">
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="33"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="34"/>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="B40" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="37"/>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="B41" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
+      <c r="H40" s="36"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="37"/>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="B42" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
+      <c r="H41" s="36"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
       <c r="E42" s="39"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="40"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
       <c r="H42" s="40"/>
-      <c r="I42" s="41"/>
-    </row>
-    <row r="44" spans="1:12">
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
+      <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-    </row>
-    <row r="45" spans="1:12">
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
+      <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-    </row>
-    <row r="46" spans="1:12">
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
+      <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-    </row>
-    <row r="47" spans="1:12">
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
+      <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-    </row>
-    <row r="48" spans="1:12">
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
+      <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-    </row>
-    <row r="49" spans="1:9">
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
+      <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-    </row>
-    <row r="50" spans="1:9">
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
+      <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-    </row>
-    <row r="51" spans="1:9">
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
+      <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-    </row>
-    <row r="52" spans="1:9">
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
+      <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-    </row>
-    <row r="53" spans="1:9">
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
+      <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-    </row>
-    <row r="54" spans="1:9">
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
+      <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-    </row>
-    <row r="55" spans="1:9">
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
+      <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-    </row>
-    <row r="56" spans="1:9">
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
+      <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-    </row>
-    <row r="57" spans="1:9">
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
+      <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-    </row>
-    <row r="58" spans="1:9">
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
+      <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-    </row>
-    <row r="59" spans="1:9">
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
+      <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-    </row>
-    <row r="60" spans="1:9">
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
+      <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-    </row>
-    <row r="61" spans="1:9">
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
+      <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-    </row>
-    <row r="62" spans="1:9">
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
+      <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-    </row>
-    <row r="63" spans="1:9">
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
+      <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-    </row>
-    <row r="64" spans="1:9">
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
+      <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-    </row>
-    <row r="65" spans="1:9">
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
+      <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-    </row>
-    <row r="66" spans="1:9">
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
+      <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-    </row>
-    <row r="67" spans="1:9">
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
+      <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-    </row>
-    <row r="68" spans="1:9">
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
+      <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-    </row>
-    <row r="69" spans="1:9">
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
+      <c r="D69" s="3"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-    </row>
-    <row r="70" spans="1:9">
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
+      <c r="D70" s="3"/>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
-    </row>
-    <row r="71" spans="1:9">
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
+      <c r="D71" s="3"/>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-    </row>
-    <row r="72" spans="1:9">
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
+      <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
-    </row>
-    <row r="73" spans="1:9">
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
+      <c r="D73" s="3"/>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-    </row>
-    <row r="74" spans="1:9">
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
+      <c r="D74" s="3"/>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-    </row>
-    <row r="75" spans="1:9">
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
+      <c r="D75" s="3"/>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-    </row>
-    <row r="76" spans="1:9">
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
+      <c r="D76" s="3"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
-    </row>
-    <row r="77" spans="1:9">
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
+      <c r="D77" s="3"/>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-    </row>
-    <row r="78" spans="1:9">
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
+      <c r="D78" s="3"/>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
-    </row>
-    <row r="79" spans="1:9">
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
+      <c r="D79" s="3"/>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="A9:A34"/>
+  <mergeCells count="3">
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A9:A33"/>
     <mergeCell ref="B9:B33"/>
-    <mergeCell ref="C9:C33"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MXIC_PCCS/Content/MXIC/計價單.xlsx
+++ b/MXIC_PCCS/Content/MXIC/計價單.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="73">
   <si>
     <t>Open PO驗收明細表</t>
   </si>
@@ -514,6 +514,11 @@
   </si>
   <si>
     <t>_____________</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pesrsonal Data(D)
+Macronix Highly Confidential</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -527,7 +532,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -594,6 +599,13 @@
     <font>
       <b/>
       <sz val="10"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="標楷體"/>
       <family val="4"/>
       <charset val="136"/>
@@ -766,7 +778,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -875,6 +887,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -896,6 +914,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2792178</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="圖片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="457201" y="228600"/>
+          <a:ext cx="3735152" cy="342899"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1188,7 +1255,7 @@
   <dimension ref="A1:AZ79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1198,10 +1265,10 @@
     <col min="3" max="3" width="6.125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="70.5" style="9" customWidth="1"/>
     <col min="5" max="5" width="5.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.25" style="9" customWidth="1"/>
     <col min="7" max="7" width="9" style="9" customWidth="1"/>
     <col min="8" max="8" width="12.5" style="9" customWidth="1"/>
-    <col min="9" max="9" width="4.75" style="4" customWidth="1"/>
+    <col min="9" max="9" width="11.75" style="4" customWidth="1"/>
     <col min="10" max="10" width="10.625" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.875" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.375" style="4" bestFit="1" customWidth="1"/>
@@ -1210,19 +1277,25 @@
     <col min="55" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52">
+    <row r="1" spans="1:52" ht="16.5" customHeight="1">
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="G1" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:52">
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:52">
       <c r="D3" s="3"/>
@@ -2322,7 +2395,8 @@
       <c r="H79" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
+    <mergeCell ref="G1:I2"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A9:A33"/>
     <mergeCell ref="B9:B33"/>
@@ -2330,5 +2404,6 @@
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>